--- a/DATABASE/Boutique/Книга-тест.xlsx
+++ b/DATABASE/Boutique/Книга-тест.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="8400"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="6">
   <si>
     <t>%</t>
   </si>
@@ -29,12 +29,18 @@
   <si>
     <t>grn</t>
   </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +48,39 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,8 +103,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -76,9 +126,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -116,7 +166,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,7 +236,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -362,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,11 +517,11 @@
     </row>
     <row r="6" spans="2:18">
       <c r="D6">
-        <f t="shared" ref="D6:D9" si="0">F6*$J$2</f>
+        <f>F6*$J$2</f>
         <v>9375.6999999999989</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E9" si="1">(F6-I6)*$J$2</f>
+        <f>(F6-I6)*$J$2</f>
         <v>4687.8499999999995</v>
       </c>
       <c r="F6">
@@ -481,18 +531,18 @@
         <v>50</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I9" si="2">F6*(100-G6)/100</f>
+        <f>F6*(100-G6)/100</f>
         <v>145</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J9" si="3">I6*$J$2</f>
+        <f>I6*$J$2</f>
         <v>4687.8499999999995</v>
       </c>
       <c r="K6">
         <v>-64.66</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L9" si="4">J6-K6</f>
+        <f>J6-K6</f>
         <v>4752.5099999999993</v>
       </c>
       <c r="M6">
@@ -513,11 +563,11 @@
     </row>
     <row r="7" spans="2:18">
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f>F7*$J$2</f>
         <v>14548.5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f>(F7-I7)*$J$2</f>
         <v>7274.25</v>
       </c>
       <c r="F7">
@@ -527,18 +577,18 @@
         <v>50</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f>F7*(100-G7)/100</f>
         <v>225</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f>I7*$J$2</f>
         <v>7274.25</v>
       </c>
       <c r="K7">
         <v>-96.99</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f>J7-K7</f>
         <v>7371.24</v>
       </c>
       <c r="M7">
@@ -559,11 +609,11 @@
     </row>
     <row r="8" spans="2:18">
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>F8*$J$2</f>
         <v>11962.099999999999</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f>(F8-I8)*$J$2</f>
         <v>5981.0499999999993</v>
       </c>
       <c r="F8">
@@ -573,18 +623,18 @@
         <v>50</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f>F8*(100-G8)/100</f>
         <v>185</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f>I8*$J$2</f>
         <v>5981.0499999999993</v>
       </c>
       <c r="K8">
         <v>-64.66</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f>J8-K8</f>
         <v>6045.7099999999991</v>
       </c>
       <c r="M8">
@@ -605,11 +655,11 @@
     </row>
     <row r="9" spans="2:18">
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f>F9*$J$2</f>
         <v>14548.5</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f>(F9-I9)*$J$2</f>
         <v>7274.25</v>
       </c>
       <c r="F9">
@@ -619,18 +669,18 @@
         <v>50</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f>F9*(100-G9)/100</f>
         <v>225</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f>I9*$J$2</f>
         <v>7274.25</v>
       </c>
       <c r="K9">
         <v>-96.99</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f>J9-K9</f>
         <v>7371.24</v>
       </c>
       <c r="M9">
@@ -805,7 +855,7 @@
         <v>224.99</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N21" si="5">ROUND(M19*$J$2,2)</f>
+        <f>ROUND(M19*$J$2,2)</f>
         <v>7273.93</v>
       </c>
       <c r="O19">
@@ -829,7 +879,7 @@
         <v>184.99</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
+        <f>ROUND(M20*$J$2,2)</f>
         <v>5980.73</v>
       </c>
       <c r="O20">
@@ -962,30 +1012,1150 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="E7:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:18">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="5:18">
+      <c r="M8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="5:18">
+      <c r="M9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="5:18">
+      <c r="E10">
+        <v>490</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="5:18">
+      <c r="E11">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>405.07</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="5:18">
+      <c r="E12">
+        <f>E10*E11/100</f>
+        <v>343</v>
+      </c>
+      <c r="J12">
+        <v>789.07</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="5:18">
+      <c r="E13">
+        <f>E12*33.3</f>
+        <v>11421.9</v>
+      </c>
+      <c r="J13">
+        <v>618.14</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="5:18">
+      <c r="E14">
+        <v>11420</v>
+      </c>
+      <c r="F14">
+        <f>E14/G11</f>
+        <v>28.192658059100896</v>
+      </c>
+      <c r="J14">
+        <v>170.93</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="5:18">
+      <c r="F15">
+        <f>E13/G11</f>
+        <v>28.197348606413705</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="5:18">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="E18">
+        <v>278</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>6.18</v>
+      </c>
+      <c r="H19">
+        <v>0.03</v>
+      </c>
+      <c r="I19">
+        <f>G19-H19</f>
+        <v>6.1499999999999995</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20">
+        <f>E18*E19*0.9</f>
+        <v>3753</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21">
+        <v>103161</v>
+      </c>
+      <c r="G21">
+        <f>G19/5</f>
+        <v>1.236</v>
+      </c>
+      <c r="H21">
+        <f>H19/5</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I21">
+        <f>I19/5</f>
+        <v>1.23</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="5:13">
+      <c r="E22">
+        <f>E21/E20</f>
+        <v>27.487609912070344</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="5:13">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="5:13">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="5:13">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="5:13">
+      <c r="M26" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="26.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="4" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="2">
+        <f t="shared" ref="A1:A15" si="0">C1*E1</f>
+        <v>483</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4">
+        <f>Q1+$Q$16</f>
+        <v>69</v>
+      </c>
+      <c r="F1" s="2">
+        <f t="shared" ref="F1:F15" si="1">H1*J1</f>
+        <v>392</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4">
+        <f>R1+$Q$16</f>
+        <v>56</v>
+      </c>
+      <c r="K1" s="2">
+        <f t="shared" ref="K1:K15" si="2">M1*O1</f>
+        <v>531</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4">
+        <f>S1+$Q$16</f>
+        <v>59</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>84</v>
+      </c>
+      <c r="R1" s="3">
+        <v>71</v>
+      </c>
+      <c r="S1" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E15" si="3">Q2+$Q$16</f>
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" si="1"/>
+        <v>354</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2:J15" si="4">R2+$Q$16</f>
+        <v>59</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" ref="O2:O15" si="5">S2+$Q$16</f>
+        <v>55</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>47</v>
+      </c>
+      <c r="R2" s="3">
+        <v>74</v>
+      </c>
+      <c r="S2" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2">
+        <f t="shared" si="0"/>
+        <v>531</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>74</v>
+      </c>
+      <c r="R3" s="3">
+        <v>77</v>
+      </c>
+      <c r="S3" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>329</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>58</v>
+      </c>
+      <c r="R4" s="3">
+        <v>79</v>
+      </c>
+      <c r="S4" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>43</v>
+      </c>
+      <c r="R5" s="3">
+        <v>83</v>
+      </c>
+      <c r="S5" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>584</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>6</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>93</v>
+      </c>
+      <c r="R6" s="3">
+        <v>88</v>
+      </c>
+      <c r="S6" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>49</v>
+      </c>
+      <c r="R7" s="3">
+        <v>89</v>
+      </c>
+      <c r="S7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>301</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>616</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>8</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>58</v>
+      </c>
+      <c r="R8" s="3">
+        <v>92</v>
+      </c>
+      <c r="S8" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>657</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>54</v>
+      </c>
+      <c r="R9" s="3">
+        <v>88</v>
+      </c>
+      <c r="S9" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>415</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>53</v>
+      </c>
+      <c r="R10" s="3">
+        <v>98</v>
+      </c>
+      <c r="S10" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>77</v>
+      </c>
+      <c r="R11" s="3">
+        <v>94</v>
+      </c>
+      <c r="S11" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>57</v>
+      </c>
+      <c r="R12" s="3">
+        <v>90</v>
+      </c>
+      <c r="S12" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>6</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>58</v>
+      </c>
+      <c r="R13" s="3">
+        <v>87</v>
+      </c>
+      <c r="S13" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>402</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2">
+        <v>7</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>54</v>
+      </c>
+      <c r="R14" s="3">
+        <v>82</v>
+      </c>
+      <c r="S14" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>8</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="2"/>
+        <v>592</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
+        <v>8</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>68</v>
+      </c>
+      <c r="R15" s="3">
+        <v>97</v>
+      </c>
+      <c r="S15" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="Q16" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>